--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE22D1C-D3EB-4C4D-9090-6A9A39E7E7DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A9095-738F-453D-B338-94EBB9BC3EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -85,16 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能名を書く</t>
-    <rPh sb="3" eb="6">
-      <t>キノウメイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特記事項があればここに書く</t>
     <rPh sb="0" eb="2">
       <t>トッキ</t>
@@ -131,6 +121,63 @@
   <si>
     <t>ユーザーストーリー　（20代男性）
 アーティストのライブの後、同じアーティストを好きなフォロワーに報告するためにやますたぐらむを使用。投稿する際に買ったグッツやライブのセトリ、会場で撮った自撮りをあげた。フォロワーからいいねをもらい返信欄で熱く語り合った。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール登録</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿（画像、動画,文字、＃）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示（フォローしてる人、人気な投稿など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DM一覧、履歴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索（アカウント検索、ハッシュタグ検索）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿保存機能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -522,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75">
@@ -530,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +592,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -581,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -595,7 +642,9 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -604,7 +653,9 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -613,7 +664,9 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -622,7 +675,9 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -631,7 +686,9 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -640,7 +697,9 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -649,7 +708,9 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -658,7 +719,9 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -667,21 +730,31 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A9095-738F-453D-B338-94EBB9BC3EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC718022-8A75-4688-A823-00EDF9A900F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -98,19 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここに機能の概要を書く</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,10 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規投稿（画像、動画,文字、＃）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿表示（フォローしてる人、人気な投稿など）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,15 +152,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DM一覧、履歴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索（アカウント検索、ハッシュタグ検索）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>投稿保存機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域検索</t>
+    <rPh sb="0" eb="4">
+      <t>チイキケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ、パスワードでログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの新規登録</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン、名前、紹介文など登録</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ショウカイブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投稿（画像、動画、文字、＃、地域）</t>
+    <rPh sb="16" eb="18">
+      <t>チイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像、動画、文字、＃、地域を記事として登録</t>
+    <rPh sb="14" eb="16">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -561,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -569,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75">
@@ -577,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -592,7 +619,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -628,10 +655,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -643,9 +670,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -654,9 +683,11 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -665,9 +696,11 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -676,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -687,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -698,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -709,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -720,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -742,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -753,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC718022-8A75-4688-A823-00EDF9A900F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB7FF1-BD09-425A-8FAE-FD7500A7003B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -152,18 +152,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索（アカウント検索、ハッシュタグ検索）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿保存機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地域検索</t>
-    <rPh sb="0" eb="4">
-      <t>チイキケンサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -204,6 +193,218 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン後に出る投稿の一覧表示。投稿の新しい順に出る。</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された投稿の詳細を表示。画像、動画、文字、＃、地域　等詳細を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示、投稿詳細でアイコンクリックしてカウントアップ</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウコウショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿詳細でコメントを入れる。</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者のプロフィールからフォロー</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール登録表示</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿表示、投稿詳細から投稿者を選択して表示</t>
+    <rPh sb="0" eb="4">
+      <t>トウコウヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トウコウショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者のプロフィールからDMボタンでDM入力画面に遷移</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム、検索、新規投稿、DM、プロフィールに遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>シンキトウコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索（アカウント検索、ハッシュタグ検索、地域検索）</t>
+    <rPh sb="20" eb="22">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューから起動され各種検索を行う、検索にヒットした投稿が一覧表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存したい投稿にマークし、それを表示する機能</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,10 +817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -650,7 +851,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -658,14 +861,16 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -673,12 +878,14 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -686,123 +893,173 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
@@ -818,6 +1075,13 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB7FF1-BD09-425A-8FAE-FD7500A7003B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C40540-5815-A049-A1C0-9EBB0273BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -777,10 +777,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -800,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="75">
+    <row r="3" spans="1:2" ht="80">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,17 +819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:5" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -912,7 +912,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:5" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:5" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:5" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:5" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:5" ht="40" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:5" ht="40" customHeight="1">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:5" ht="40" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:5" ht="40" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1062,21 +1062,21 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:5" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:5" ht="40" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:5" ht="40" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C40540-5815-A049-A1C0-9EBB0273BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B563904-D41F-4BA0-ACC9-4FD6D6B89031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -777,7 +777,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
@@ -800,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="80">
+    <row r="3" spans="1:2" ht="70">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,11 +819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B563904-D41F-4BA0-ACC9-4FD6D6B89031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65D694-1E13-2541-B086-5E53BD69E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -85,19 +85,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>特記事項があればここに書く</t>
-    <rPh sb="0" eb="2">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Scrum4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -299,16 +286,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール登録表示</t>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿表示、投稿詳細から投稿者を選択して表示</t>
     <rPh sb="0" eb="4">
       <t>トウコウヒョウジ</t>
@@ -406,6 +383,23 @@
     <rPh sb="20" eb="22">
       <t>キノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール登録編集表示</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←できたら2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -777,7 +771,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
@@ -789,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -797,15 +791,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="80">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -817,13 +811,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -833,7 +827,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -850,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:6" ht="40" customHeight="1">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -858,16 +852,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -875,14 +869,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40" customHeight="1">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -890,14 +886,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="40" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -905,14 +903,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -920,14 +920,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="40" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -935,14 +937,14 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:6" ht="40" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -950,14 +952,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="40" customHeight="1">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -965,14 +970,14 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:6" ht="40" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -980,14 +985,14 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="40" customHeight="1">
+    <row r="11" spans="1:6" ht="40" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -995,14 +1000,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1010,14 +1017,14 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+    <row r="13" spans="1:6" ht="40" customHeight="1">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1025,14 +1032,14 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
+    <row r="14" spans="1:6" ht="40" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1040,14 +1047,14 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:6" ht="40" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1055,14 +1062,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="40" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65D694-1E13-2541-B086-5E53BD69E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D1F894-FBF1-E842-997C-404ED175F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1037,7 +1037,9 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="40" customHeight="1">
       <c r="A14" s="1">

--- a/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
+++ b/02プロダクトバックログ/Scrum4_プロダクトバックログ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D1F894-FBF1-E842-997C-404ED175F90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7B41B7-22A5-4379-9D94-0B878F366ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="16275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロダクトの概要" sheetId="2" r:id="rId1"/>
@@ -771,10 +771,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="4" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="80">
+    <row r="3" spans="1:2" ht="75">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,17 +813,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40" customHeight="1">
+    <row r="2" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40" customHeight="1">
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -878,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40" customHeight="1">
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40" customHeight="1">
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40" customHeight="1">
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="40" customHeight="1">
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -942,9 +942,11 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="40" customHeight="1">
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -957,12 +959,14 @@
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="40" customHeight="1">
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -975,9 +979,11 @@
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="40" customHeight="1">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -990,9 +996,11 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="40" customHeight="1">
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="40" customHeight="1">
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1022,9 +1030,11 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="40" customHeight="1">
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -1041,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="40" customHeight="1">
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -1054,9 +1064,11 @@
       <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="40" customHeight="1">
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1073,21 +1085,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="40" customHeight="1">
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="40" customHeight="1">
+    <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="40" customHeight="1">
+    <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
